--- a/data/pca/factorExposure/factorExposure_2016-10-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01739096051860013</v>
+        <v>-0.01452012901000182</v>
       </c>
       <c r="C2">
-        <v>-0.04779939813247467</v>
+        <v>0.04187001343495495</v>
       </c>
       <c r="D2">
-        <v>0.03018673207588838</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05682179360147758</v>
+      </c>
+      <c r="E2">
+        <v>0.04735891294052093</v>
+      </c>
+      <c r="F2">
+        <v>0.08686079405099673</v>
+      </c>
+      <c r="G2">
+        <v>0.02766154842573407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05825202303163856</v>
+        <v>-0.03429322244983094</v>
       </c>
       <c r="C3">
-        <v>-0.09601712051974944</v>
+        <v>0.08286145764495895</v>
       </c>
       <c r="D3">
-        <v>0.06687412693344179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09919371406626694</v>
+      </c>
+      <c r="E3">
+        <v>0.07412672679046271</v>
+      </c>
+      <c r="F3">
+        <v>0.03460155383275351</v>
+      </c>
+      <c r="G3">
+        <v>-0.05694812375543395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0633311440003877</v>
+        <v>-0.05772724404550252</v>
       </c>
       <c r="C4">
-        <v>-0.06018151135209666</v>
+        <v>0.06139546768601076</v>
       </c>
       <c r="D4">
-        <v>0.01923290938634319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0584518531105091</v>
+      </c>
+      <c r="E4">
+        <v>0.04440633872991651</v>
+      </c>
+      <c r="F4">
+        <v>0.07899532002555545</v>
+      </c>
+      <c r="G4">
+        <v>-0.04204301818745244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02729777224877292</v>
+        <v>-0.03526221857782494</v>
       </c>
       <c r="C6">
-        <v>-0.04340797404015596</v>
+        <v>0.03502114865103276</v>
       </c>
       <c r="D6">
-        <v>0.02283851750917788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06523710802718291</v>
+      </c>
+      <c r="E6">
+        <v>0.05680268476738715</v>
+      </c>
+      <c r="F6">
+        <v>0.07215601594104823</v>
+      </c>
+      <c r="G6">
+        <v>-0.01894195677549357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02373840138253797</v>
+        <v>-0.02140076918544989</v>
       </c>
       <c r="C7">
-        <v>-0.03836837684573807</v>
+        <v>0.03437272816965756</v>
       </c>
       <c r="D7">
-        <v>-0.007478081447708779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03734974229988744</v>
+      </c>
+      <c r="E7">
+        <v>0.03145779391910415</v>
+      </c>
+      <c r="F7">
+        <v>0.1124731158161685</v>
+      </c>
+      <c r="G7">
+        <v>-0.01056187753747436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0005285067234431484</v>
+        <v>-0.005153210291316104</v>
       </c>
       <c r="C8">
-        <v>-0.0120621138121441</v>
+        <v>0.01956039321544885</v>
       </c>
       <c r="D8">
-        <v>0.02262554384677649</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0359407388489142</v>
+      </c>
+      <c r="E8">
+        <v>0.03271287534917496</v>
+      </c>
+      <c r="F8">
+        <v>0.05682328860290068</v>
+      </c>
+      <c r="G8">
+        <v>-0.01049305787511109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02921322937731527</v>
+        <v>-0.03664131215183596</v>
       </c>
       <c r="C9">
-        <v>-0.04127152528079817</v>
+        <v>0.04785116411707359</v>
       </c>
       <c r="D9">
-        <v>0.0126789001360553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04261934047042851</v>
+      </c>
+      <c r="E9">
+        <v>0.03708027783849238</v>
+      </c>
+      <c r="F9">
+        <v>0.08788669628784979</v>
+      </c>
+      <c r="G9">
+        <v>-0.02579985298980747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07806921815291032</v>
+        <v>-0.09770958797842413</v>
       </c>
       <c r="C10">
-        <v>0.1946796450671324</v>
+        <v>-0.1897591143180355</v>
       </c>
       <c r="D10">
-        <v>0.009634407143478425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001987694072496281</v>
+      </c>
+      <c r="E10">
+        <v>0.04129080210514535</v>
+      </c>
+      <c r="F10">
+        <v>0.04063185611878673</v>
+      </c>
+      <c r="G10">
+        <v>-0.005758507042277155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04148286019406156</v>
+        <v>-0.03644830044167927</v>
       </c>
       <c r="C11">
-        <v>-0.0545970531657469</v>
+        <v>0.05033778044382081</v>
       </c>
       <c r="D11">
-        <v>-0.002975523898009621</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03222165997793537</v>
+      </c>
+      <c r="E11">
+        <v>0.00440608142627457</v>
+      </c>
+      <c r="F11">
+        <v>0.06666838496337671</v>
+      </c>
+      <c r="G11">
+        <v>-0.01696841876577869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.0353408195748253</v>
+        <v>-0.03677374482257332</v>
       </c>
       <c r="C12">
-        <v>-0.04525821925113601</v>
+        <v>0.04546253014827939</v>
       </c>
       <c r="D12">
-        <v>-0.003000405499108575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02497871892031832</v>
+      </c>
+      <c r="E12">
+        <v>0.0122415829885655</v>
+      </c>
+      <c r="F12">
+        <v>0.0678122282009595</v>
+      </c>
+      <c r="G12">
+        <v>-0.012233665214933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01017280447402821</v>
+        <v>-0.01213726134166758</v>
       </c>
       <c r="C13">
-        <v>-0.04093439574736721</v>
+        <v>0.04082391841962206</v>
       </c>
       <c r="D13">
-        <v>0.02235362939647324</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06389879670010459</v>
+      </c>
+      <c r="E13">
+        <v>0.0622303646241765</v>
+      </c>
+      <c r="F13">
+        <v>0.11794027602033</v>
+      </c>
+      <c r="G13">
+        <v>-0.02164409060908988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006771130370633389</v>
+        <v>-0.005799258020440371</v>
       </c>
       <c r="C14">
-        <v>-0.03244552619436131</v>
+        <v>0.02791228944763175</v>
       </c>
       <c r="D14">
-        <v>-0.01655314521471811</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0289752137804683</v>
+      </c>
+      <c r="E14">
+        <v>0.02303375242381501</v>
+      </c>
+      <c r="F14">
+        <v>0.09851730664835219</v>
+      </c>
+      <c r="G14">
+        <v>0.004639302842960392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001185242341013299</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.0009193728683607052</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.001576119462791788</v>
+      </c>
+      <c r="E15">
+        <v>-0.0003570924309985316</v>
+      </c>
+      <c r="F15">
+        <v>0.0004102782825784042</v>
+      </c>
+      <c r="G15">
+        <v>0.001005516490682653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03482468443554476</v>
+        <v>-0.03353680929609339</v>
       </c>
       <c r="C16">
-        <v>-0.0410912019071135</v>
+        <v>0.04401877116161414</v>
       </c>
       <c r="D16">
-        <v>0.003243306174144678</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02789061346738893</v>
+      </c>
+      <c r="E16">
+        <v>0.01894665976025733</v>
+      </c>
+      <c r="F16">
+        <v>0.07074105240869566</v>
+      </c>
+      <c r="G16">
+        <v>-0.002401802182849063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03235334291443439</v>
+        <v>-0.01815355677676668</v>
       </c>
       <c r="C19">
-        <v>-0.06063618946201734</v>
+        <v>0.04999111426779325</v>
       </c>
       <c r="D19">
-        <v>0.06855382895585761</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1032081982842909</v>
+      </c>
+      <c r="E19">
+        <v>0.08417041937849995</v>
+      </c>
+      <c r="F19">
+        <v>0.1087258358774683</v>
+      </c>
+      <c r="G19">
+        <v>0.01747336584890838</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01430339554012507</v>
+        <v>-0.01389355139089434</v>
       </c>
       <c r="C20">
-        <v>-0.04440461192365964</v>
+        <v>0.0390640949980483</v>
       </c>
       <c r="D20">
-        <v>0.01587239702474312</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04055618269541533</v>
+      </c>
+      <c r="E20">
+        <v>0.05452342912261969</v>
+      </c>
+      <c r="F20">
+        <v>0.09373414243850595</v>
+      </c>
+      <c r="G20">
+        <v>-0.007009838829697163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.008797157981808778</v>
+        <v>-0.007501698883280635</v>
       </c>
       <c r="C21">
-        <v>-0.04675158431556933</v>
+        <v>0.04130105249559241</v>
       </c>
       <c r="D21">
-        <v>0.040481666247114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06913053568106602</v>
+      </c>
+      <c r="E21">
+        <v>0.06452442343293299</v>
+      </c>
+      <c r="F21">
+        <v>0.1339471934617659</v>
+      </c>
+      <c r="G21">
+        <v>-0.007279897783692931</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.003337366335532349</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01491884634170925</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03000227002002277</v>
+      </c>
+      <c r="E22">
+        <v>0.01167799379145971</v>
+      </c>
+      <c r="F22">
+        <v>0.01258030420782389</v>
+      </c>
+      <c r="G22">
+        <v>-0.03488775266498477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.003387155331009166</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01488561190278237</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02968940495974814</v>
+      </c>
+      <c r="E23">
+        <v>0.01189618325656417</v>
+      </c>
+      <c r="F23">
+        <v>0.0122762511631624</v>
+      </c>
+      <c r="G23">
+        <v>-0.03485347643329959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02944864184016079</v>
+        <v>-0.03236774685081116</v>
       </c>
       <c r="C24">
-        <v>-0.04727979036884763</v>
+        <v>0.05066293081562413</v>
       </c>
       <c r="D24">
-        <v>-0.003182861575568481</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02575612701311828</v>
+      </c>
+      <c r="E24">
+        <v>0.01374568905928189</v>
+      </c>
+      <c r="F24">
+        <v>0.07676566514966227</v>
+      </c>
+      <c r="G24">
+        <v>-0.009845020194838979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04658205131323032</v>
+        <v>-0.04231667042143534</v>
       </c>
       <c r="C25">
-        <v>-0.05809961360281573</v>
+        <v>0.05722536078524275</v>
       </c>
       <c r="D25">
-        <v>-0.01586180447802605</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02410755731394704</v>
+      </c>
+      <c r="E25">
+        <v>0.009934580656075297</v>
+      </c>
+      <c r="F25">
+        <v>0.07901782537376248</v>
+      </c>
+      <c r="G25">
+        <v>-0.02729854708358567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.008869789809559842</v>
+        <v>-0.01408392210404972</v>
       </c>
       <c r="C26">
-        <v>-0.01723894649596824</v>
+        <v>0.01425425715287787</v>
       </c>
       <c r="D26">
-        <v>0.004782868703022717</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02422108325638141</v>
+      </c>
+      <c r="E26">
+        <v>0.02519111652182221</v>
+      </c>
+      <c r="F26">
+        <v>0.07754318756210082</v>
+      </c>
+      <c r="G26">
+        <v>0.01166039030598254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09296909745331511</v>
+        <v>-0.1309436969572542</v>
       </c>
       <c r="C28">
-        <v>0.2233725864405794</v>
+        <v>-0.2394615836048</v>
       </c>
       <c r="D28">
-        <v>0.01038893229663638</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01847993602370193</v>
+      </c>
+      <c r="E28">
+        <v>0.04051161440988377</v>
+      </c>
+      <c r="F28">
+        <v>0.05304390782984492</v>
+      </c>
+      <c r="G28">
+        <v>-0.01667454862612549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01166731171208069</v>
+        <v>-0.007537349306668578</v>
       </c>
       <c r="C29">
-        <v>-0.02493470351334974</v>
+        <v>0.02363828550380991</v>
       </c>
       <c r="D29">
-        <v>-0.01711771300362432</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01895668372766552</v>
+      </c>
+      <c r="E29">
+        <v>0.02617625034572963</v>
+      </c>
+      <c r="F29">
+        <v>0.08813213091159479</v>
+      </c>
+      <c r="G29">
+        <v>-0.007475442804412543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04913565529159617</v>
+        <v>-0.0394132303576062</v>
       </c>
       <c r="C30">
-        <v>-0.06865237941884179</v>
+        <v>0.0592806349001297</v>
       </c>
       <c r="D30">
-        <v>0.04101142519530294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1042427636589049</v>
+      </c>
+      <c r="E30">
+        <v>0.03373282776762496</v>
+      </c>
+      <c r="F30">
+        <v>0.09989871067448923</v>
+      </c>
+      <c r="G30">
+        <v>0.01700389013222705</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04305216825391023</v>
+        <v>-0.05491691704113017</v>
       </c>
       <c r="C31">
-        <v>-0.03154343462415024</v>
+        <v>0.04691624669980842</v>
       </c>
       <c r="D31">
-        <v>-0.02097555032668634</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.004905198570578585</v>
+      </c>
+      <c r="E31">
+        <v>0.04258726580352674</v>
+      </c>
+      <c r="F31">
+        <v>0.08471602674019334</v>
+      </c>
+      <c r="G31">
+        <v>-0.0459577143083304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.002450916450464314</v>
+        <v>-0.002019309315548855</v>
       </c>
       <c r="C32">
-        <v>-0.04547564127357524</v>
+        <v>0.03242014605225433</v>
       </c>
       <c r="D32">
-        <v>0.02809795581930052</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05323161683419345</v>
+      </c>
+      <c r="E32">
+        <v>0.0196630251006948</v>
+      </c>
+      <c r="F32">
+        <v>0.06775340627720761</v>
+      </c>
+      <c r="G32">
+        <v>0.009010845741142429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02815424181415886</v>
+        <v>-0.02438905292524618</v>
       </c>
       <c r="C33">
-        <v>-0.06330517445038759</v>
+        <v>0.05166180117138269</v>
       </c>
       <c r="D33">
-        <v>0.02423530415107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08081961990859947</v>
+      </c>
+      <c r="E33">
+        <v>0.04718199195313894</v>
+      </c>
+      <c r="F33">
+        <v>0.1310392382205778</v>
+      </c>
+      <c r="G33">
+        <v>-0.02546413274023367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05105317134473639</v>
+        <v>-0.04159385695956627</v>
       </c>
       <c r="C34">
-        <v>-0.05604683201399099</v>
+        <v>0.06248908398082263</v>
       </c>
       <c r="D34">
-        <v>-0.0125512079098499</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0329374941080271</v>
+      </c>
+      <c r="E34">
+        <v>-0.004960365342472089</v>
+      </c>
+      <c r="F34">
+        <v>0.07652251011543659</v>
+      </c>
+      <c r="G34">
+        <v>-0.01419542272977692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.00861081702814089</v>
+        <v>-0.01501353641390597</v>
       </c>
       <c r="C36">
-        <v>-0.01258626612961601</v>
+        <v>0.009474525504539489</v>
       </c>
       <c r="D36">
-        <v>0.002310625999811352</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02567449872966046</v>
+      </c>
+      <c r="E36">
+        <v>0.03256157537062078</v>
+      </c>
+      <c r="F36">
+        <v>0.08552709378215248</v>
+      </c>
+      <c r="G36">
+        <v>-0.01333215990161411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03427329581809352</v>
+        <v>-0.02660160145595252</v>
       </c>
       <c r="C38">
-        <v>-0.02438174334035067</v>
+        <v>0.02313081993065284</v>
       </c>
       <c r="D38">
-        <v>-0.00142124236428621</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02577584041171214</v>
+      </c>
+      <c r="E38">
+        <v>0.03446530721345637</v>
+      </c>
+      <c r="F38">
+        <v>0.0712127610014463</v>
+      </c>
+      <c r="G38">
+        <v>-0.01032293559899357</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04085197064437996</v>
+        <v>-0.03795186104894344</v>
       </c>
       <c r="C39">
-        <v>-0.07301580388457925</v>
+        <v>0.06554665854261045</v>
       </c>
       <c r="D39">
-        <v>0.02084034478046998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05038281534696355</v>
+      </c>
+      <c r="E39">
+        <v>0.01628020824941702</v>
+      </c>
+      <c r="F39">
+        <v>0.09281154859005411</v>
+      </c>
+      <c r="G39">
+        <v>0.01460288724454954</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01815174415575439</v>
+        <v>-0.01750488660162322</v>
       </c>
       <c r="C40">
-        <v>-0.02804346194790619</v>
+        <v>0.03570469860637023</v>
       </c>
       <c r="D40">
-        <v>0.03721835185447673</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03690635155471578</v>
+      </c>
+      <c r="E40">
+        <v>0.06985155110719704</v>
+      </c>
+      <c r="F40">
+        <v>0.09271309477955558</v>
+      </c>
+      <c r="G40">
+        <v>-0.05078001761316917</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01048758323414685</v>
+        <v>-0.01841668264276148</v>
       </c>
       <c r="C41">
-        <v>-0.003626971651578055</v>
+        <v>0.003234381871503512</v>
       </c>
       <c r="D41">
-        <v>-0.003189919385314867</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01782445527060428</v>
+      </c>
+      <c r="E41">
+        <v>0.03486921465755356</v>
+      </c>
+      <c r="F41">
+        <v>0.07644754086249815</v>
+      </c>
+      <c r="G41">
+        <v>-0.005027063050961618</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.005512123927571082</v>
+        <v>-0.002930467626457828</v>
       </c>
       <c r="C42">
-        <v>-0.01925668586665807</v>
+        <v>0.0103882920022902</v>
       </c>
       <c r="D42">
-        <v>0.0008236016495992329</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.002210429009950354</v>
+      </c>
+      <c r="E42">
+        <v>0.005484927691146041</v>
+      </c>
+      <c r="F42">
+        <v>-0.01233758572997257</v>
+      </c>
+      <c r="G42">
+        <v>-0.009867899825740382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03157400962481716</v>
+        <v>-0.03073008655730889</v>
       </c>
       <c r="C43">
-        <v>-0.01723761738683673</v>
+        <v>0.0182384496889789</v>
       </c>
       <c r="D43">
-        <v>0.002706837376045878</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04083093392878562</v>
+      </c>
+      <c r="E43">
+        <v>0.03837458928655821</v>
+      </c>
+      <c r="F43">
+        <v>0.09168623658817691</v>
+      </c>
+      <c r="G43">
+        <v>-0.0273456556708212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02117556079945884</v>
+        <v>-0.01555648550628164</v>
       </c>
       <c r="C44">
-        <v>-0.05407005013556277</v>
+        <v>0.05128471729821792</v>
       </c>
       <c r="D44">
-        <v>0.01593413448187738</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04177140210888922</v>
+      </c>
+      <c r="E44">
+        <v>0.05672935140585848</v>
+      </c>
+      <c r="F44">
+        <v>0.09875246627677305</v>
+      </c>
+      <c r="G44">
+        <v>-0.0009496290094634204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0002794716959187744</v>
+        <v>-0.007961417011940303</v>
       </c>
       <c r="C46">
-        <v>-0.018936266032818</v>
+        <v>0.0215632500220494</v>
       </c>
       <c r="D46">
-        <v>-0.01663092844445656</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01272098284000541</v>
+      </c>
+      <c r="E46">
+        <v>0.03012746185224569</v>
+      </c>
+      <c r="F46">
+        <v>0.1032290132256631</v>
+      </c>
+      <c r="G46">
+        <v>-0.003030982807929608</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07681858001819038</v>
+        <v>-0.08586697062837712</v>
       </c>
       <c r="C47">
-        <v>-0.07260364270056245</v>
+        <v>0.07904099473066989</v>
       </c>
       <c r="D47">
-        <v>-0.01640346987103243</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01271980426766615</v>
+      </c>
+      <c r="E47">
+        <v>0.04820382112548931</v>
+      </c>
+      <c r="F47">
+        <v>0.08236939788894994</v>
+      </c>
+      <c r="G47">
+        <v>-0.04933074742205665</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01968270067950645</v>
+        <v>-0.01620474259773157</v>
       </c>
       <c r="C48">
-        <v>-0.01120346417741136</v>
+        <v>0.01450911514556829</v>
       </c>
       <c r="D48">
-        <v>-0.002642638720129801</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01663844241904443</v>
+      </c>
+      <c r="E48">
+        <v>0.04195980276131325</v>
+      </c>
+      <c r="F48">
+        <v>0.09900892987790054</v>
+      </c>
+      <c r="G48">
+        <v>-0.0103340535458821</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08810292563084318</v>
+        <v>-0.07250357140747671</v>
       </c>
       <c r="C50">
-        <v>-0.06736871358419788</v>
+        <v>0.0683287545525568</v>
       </c>
       <c r="D50">
-        <v>-0.02613522407984779</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001878739211846803</v>
+      </c>
+      <c r="E50">
+        <v>0.04738272748234353</v>
+      </c>
+      <c r="F50">
+        <v>0.07151327065906968</v>
+      </c>
+      <c r="G50">
+        <v>-0.07695742485542956</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.0125196144264733</v>
+        <v>-0.01027490810041151</v>
       </c>
       <c r="C51">
-        <v>-0.0473167274950818</v>
+        <v>0.03362650003502526</v>
       </c>
       <c r="D51">
-        <v>0.005098658511556754</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04759794811188543</v>
+      </c>
+      <c r="E51">
+        <v>0.01952989205678307</v>
+      </c>
+      <c r="F51">
+        <v>0.09028743725899489</v>
+      </c>
+      <c r="G51">
+        <v>0.01291838736967206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.09524645034417745</v>
+        <v>-0.09121345156629203</v>
       </c>
       <c r="C53">
-        <v>-0.07527815161475017</v>
+        <v>0.08636800600604774</v>
       </c>
       <c r="D53">
-        <v>-0.0396520088900304</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03867568838948213</v>
+      </c>
+      <c r="E53">
+        <v>0.04883863771943705</v>
+      </c>
+      <c r="F53">
+        <v>0.08826332830089866</v>
+      </c>
+      <c r="G53">
+        <v>-0.05813606542316591</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02912448740308691</v>
+        <v>-0.02966193045812135</v>
       </c>
       <c r="C54">
-        <v>-0.01594154093256472</v>
+        <v>0.02382844751848105</v>
       </c>
       <c r="D54">
-        <v>0.003700552453218612</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03414271240731697</v>
+      </c>
+      <c r="E54">
+        <v>0.03288203256224155</v>
+      </c>
+      <c r="F54">
+        <v>0.09773782202173209</v>
+      </c>
+      <c r="G54">
+        <v>-0.006164749738073946</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07386992356408707</v>
+        <v>-0.08293760217089395</v>
       </c>
       <c r="C55">
-        <v>-0.06988263461686135</v>
+        <v>0.07006497327430285</v>
       </c>
       <c r="D55">
-        <v>-0.04377199546037808</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04664717505143935</v>
+      </c>
+      <c r="E55">
+        <v>0.04112723763574783</v>
+      </c>
+      <c r="F55">
+        <v>0.06167697626242639</v>
+      </c>
+      <c r="G55">
+        <v>-0.04848685928779495</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1486247319561246</v>
+        <v>-0.1451048043587242</v>
       </c>
       <c r="C56">
-        <v>-0.09396144019034525</v>
+        <v>0.1032091333679533</v>
       </c>
       <c r="D56">
-        <v>-0.05078734174972675</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04893426194843426</v>
+      </c>
+      <c r="E56">
+        <v>0.04607383811856701</v>
+      </c>
+      <c r="F56">
+        <v>0.052879926548624</v>
+      </c>
+      <c r="G56">
+        <v>-0.05575967105650541</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.005469591770244089</v>
+        <v>-0.00239223002386236</v>
       </c>
       <c r="C57">
-        <v>-0.001760848406754664</v>
+        <v>0.0008510403956983814</v>
       </c>
       <c r="D57">
-        <v>0.01972167102630842</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01650844778986989</v>
+      </c>
+      <c r="E57">
+        <v>0.008168656026840151</v>
+      </c>
+      <c r="F57">
+        <v>0.01465732038671916</v>
+      </c>
+      <c r="G57">
+        <v>-0.003579063502804989</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.06803017517700789</v>
+        <v>-0.03558260606780797</v>
       </c>
       <c r="C58">
-        <v>-0.04616270171780956</v>
+        <v>0.02772436734976402</v>
       </c>
       <c r="D58">
-        <v>0.9231691108396394</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4962079756433401</v>
+      </c>
+      <c r="E58">
+        <v>0.6992628637179302</v>
+      </c>
+      <c r="F58">
+        <v>-0.4273441302793666</v>
+      </c>
+      <c r="G58">
+        <v>0.06117411700958144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1349538078088495</v>
+        <v>-0.1466828632963594</v>
       </c>
       <c r="C59">
-        <v>0.2041083323297259</v>
+        <v>-0.1917059064240958</v>
       </c>
       <c r="D59">
-        <v>0.02251112432713279</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02804373631765127</v>
+      </c>
+      <c r="E59">
+        <v>0.02104032625595278</v>
+      </c>
+      <c r="F59">
+        <v>0.02263327697170264</v>
+      </c>
+      <c r="G59">
+        <v>0.03200521746911859</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3150566001776729</v>
+        <v>-0.2831320726649789</v>
       </c>
       <c r="C60">
-        <v>-0.08640720428602883</v>
+        <v>0.09587607151917411</v>
       </c>
       <c r="D60">
-        <v>0.04025023767185531</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2123672728818253</v>
+      </c>
+      <c r="E60">
+        <v>-0.2757997657640642</v>
+      </c>
+      <c r="F60">
+        <v>-0.1259583073783734</v>
+      </c>
+      <c r="G60">
+        <v>-0.04712440746526968</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03615685485523831</v>
+        <v>-0.04010502347326741</v>
       </c>
       <c r="C61">
-        <v>-0.06172699172389398</v>
+        <v>0.05964668121313729</v>
       </c>
       <c r="D61">
-        <v>0.01309538728232575</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0464720629956608</v>
+      </c>
+      <c r="E61">
+        <v>0.02153967680766332</v>
+      </c>
+      <c r="F61">
+        <v>0.08275983096587061</v>
+      </c>
+      <c r="G61">
+        <v>-0.01443702003450386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01551301823003506</v>
+        <v>-0.01615074188191542</v>
       </c>
       <c r="C63">
-        <v>-0.03269442600405693</v>
+        <v>0.02942681633727319</v>
       </c>
       <c r="D63">
-        <v>-0.007893366363282606</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02017443827729707</v>
+      </c>
+      <c r="E63">
+        <v>0.03514523789072199</v>
+      </c>
+      <c r="F63">
+        <v>0.07776500010938324</v>
+      </c>
+      <c r="G63">
+        <v>-0.03020463197751868</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04907042014211107</v>
+        <v>-0.05294026406593048</v>
       </c>
       <c r="C64">
-        <v>-0.02787118060811185</v>
+        <v>0.04944045831650554</v>
       </c>
       <c r="D64">
-        <v>-0.005656090226876774</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01435911473111247</v>
+      </c>
+      <c r="E64">
+        <v>0.01898320620197614</v>
+      </c>
+      <c r="F64">
+        <v>0.09234506249988365</v>
+      </c>
+      <c r="G64">
+        <v>-0.006180951949241107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.09056900914116414</v>
+        <v>-0.06891610202253182</v>
       </c>
       <c r="C65">
-        <v>-0.04892003582031333</v>
+        <v>0.0384308726685309</v>
       </c>
       <c r="D65">
-        <v>0.0267554958834846</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.081396505437985</v>
+      </c>
+      <c r="E65">
+        <v>0.03374876556270132</v>
+      </c>
+      <c r="F65">
+        <v>0.02724256113114386</v>
+      </c>
+      <c r="G65">
+        <v>0.00291851124771572</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06408494773065566</v>
+        <v>-0.05143224268547802</v>
       </c>
       <c r="C66">
-        <v>-0.1098376276322642</v>
+        <v>0.08961888463838677</v>
       </c>
       <c r="D66">
-        <v>0.02549528520034739</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07675259005278415</v>
+      </c>
+      <c r="E66">
+        <v>0.02060326356346665</v>
+      </c>
+      <c r="F66">
+        <v>0.09426776849614989</v>
+      </c>
+      <c r="G66">
+        <v>-0.004045604995693428</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05897079842086696</v>
+        <v>-0.0490732980215428</v>
       </c>
       <c r="C67">
-        <v>-0.02980319086982566</v>
+        <v>0.02877538054744708</v>
       </c>
       <c r="D67">
-        <v>-0.008910346094750592</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01363875173828633</v>
+      </c>
+      <c r="E67">
+        <v>0.02004750591608311</v>
+      </c>
+      <c r="F67">
+        <v>0.05800111859274254</v>
+      </c>
+      <c r="G67">
+        <v>-0.01481532924415471</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1193375765272348</v>
+        <v>-0.1533234233479099</v>
       </c>
       <c r="C68">
-        <v>0.2916313270591112</v>
+        <v>-0.2600079551075253</v>
       </c>
       <c r="D68">
-        <v>0.001784871875771267</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02369065459238666</v>
+      </c>
+      <c r="E68">
+        <v>0.03524790982195228</v>
+      </c>
+      <c r="F68">
+        <v>0.01999352299063948</v>
+      </c>
+      <c r="G68">
+        <v>-0.005153919699291631</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08632824809046587</v>
+        <v>-0.08626533263879156</v>
       </c>
       <c r="C69">
-        <v>-0.06854914639256167</v>
+        <v>0.08335069634360102</v>
       </c>
       <c r="D69">
-        <v>-0.04516221356739564</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008855461228733841</v>
+      </c>
+      <c r="E69">
+        <v>0.02231627614199453</v>
+      </c>
+      <c r="F69">
+        <v>0.09686193550474209</v>
+      </c>
+      <c r="G69">
+        <v>-0.0257767897654686</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1211008406254979</v>
+        <v>-0.1417318983805341</v>
       </c>
       <c r="C71">
-        <v>0.243550084408053</v>
+        <v>-0.2349781032091956</v>
       </c>
       <c r="D71">
-        <v>0.01488902158440746</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01038404168283762</v>
+      </c>
+      <c r="E71">
+        <v>0.0534433489830733</v>
+      </c>
+      <c r="F71">
+        <v>0.05731711387664997</v>
+      </c>
+      <c r="G71">
+        <v>-0.02843441187824801</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.08458856477421621</v>
+        <v>-0.09243886034072844</v>
       </c>
       <c r="C72">
-        <v>-0.05136142113139928</v>
+        <v>0.05405417293279542</v>
       </c>
       <c r="D72">
-        <v>-0.02511970742612123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01762726333212261</v>
+      </c>
+      <c r="E72">
+        <v>0.007299937842320167</v>
+      </c>
+      <c r="F72">
+        <v>0.07345579507737313</v>
+      </c>
+      <c r="G72">
+        <v>-0.02355551137619034</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4443172882229131</v>
+        <v>-0.3510124842583536</v>
       </c>
       <c r="C73">
-        <v>-0.07024995287820691</v>
+        <v>0.07682409852955993</v>
       </c>
       <c r="D73">
-        <v>0.1251420195315504</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4311036975051635</v>
+      </c>
+      <c r="E73">
+        <v>-0.4745234696889772</v>
+      </c>
+      <c r="F73">
+        <v>-0.3036624935250402</v>
+      </c>
+      <c r="G73">
+        <v>-0.09444268475333888</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1173782331973561</v>
+        <v>-0.1122312036460123</v>
       </c>
       <c r="C74">
-        <v>-0.1167688482198243</v>
+        <v>0.1013887298258123</v>
       </c>
       <c r="D74">
-        <v>-0.04448895981645499</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02684976116726756</v>
+      </c>
+      <c r="E74">
+        <v>0.0677801146291208</v>
+      </c>
+      <c r="F74">
+        <v>0.06517598053320434</v>
+      </c>
+      <c r="G74">
+        <v>-0.0727480783706696</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2581558718744555</v>
+        <v>-0.2553566508030178</v>
       </c>
       <c r="C75">
-        <v>-0.1291044614793013</v>
+        <v>0.142138419881409</v>
       </c>
       <c r="D75">
-        <v>-0.08596189289286339</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1270332944976358</v>
+      </c>
+      <c r="E75">
+        <v>0.08224164698267424</v>
+      </c>
+      <c r="F75">
+        <v>0.02742418691456049</v>
+      </c>
+      <c r="G75">
+        <v>-0.0742795637917518</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1177722675122132</v>
+        <v>-0.1284910457141626</v>
       </c>
       <c r="C76">
-        <v>-0.1049796593079606</v>
+        <v>0.105041575445313</v>
       </c>
       <c r="D76">
-        <v>-0.0570333299998023</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06092611232155187</v>
+      </c>
+      <c r="E76">
+        <v>0.07077918382150064</v>
+      </c>
+      <c r="F76">
+        <v>0.07003305001146254</v>
+      </c>
+      <c r="G76">
+        <v>-0.05987403658153081</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07383001648688267</v>
+        <v>-0.06246034324019293</v>
       </c>
       <c r="C77">
-        <v>-0.05825919170881363</v>
+        <v>0.06701055164396093</v>
       </c>
       <c r="D77">
-        <v>0.05006611275261293</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06120085822871196</v>
+      </c>
+      <c r="E77">
+        <v>0.06179770778796426</v>
+      </c>
+      <c r="F77">
+        <v>0.1161430135151504</v>
+      </c>
+      <c r="G77">
+        <v>0.1249345717297916</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04338341844920428</v>
+        <v>-0.04104156472195497</v>
       </c>
       <c r="C78">
-        <v>-0.04474540676779152</v>
+        <v>0.05353043974746155</v>
       </c>
       <c r="D78">
-        <v>0.01765850657047802</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07014602691666716</v>
+      </c>
+      <c r="E78">
+        <v>0.01333045886656872</v>
+      </c>
+      <c r="F78">
+        <v>0.09601660283231918</v>
+      </c>
+      <c r="G78">
+        <v>-0.007715000339986493</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.01174058398108713</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03317576403991525</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04580226948654417</v>
+      </c>
+      <c r="E79">
+        <v>0.03415778826139565</v>
+      </c>
+      <c r="F79">
+        <v>0.02139611104835678</v>
+      </c>
+      <c r="G79">
+        <v>-0.04185271660038807</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.05024254478928267</v>
+        <v>-0.03821137685419877</v>
       </c>
       <c r="C80">
-        <v>-0.05131746726639803</v>
+        <v>0.04710933190428215</v>
       </c>
       <c r="D80">
-        <v>0.03958885820024627</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04420149481342917</v>
+      </c>
+      <c r="E80">
+        <v>0.01451382500846655</v>
+      </c>
+      <c r="F80">
+        <v>0.03621704339639741</v>
+      </c>
+      <c r="G80">
+        <v>0.0409938331187479</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1380382754271786</v>
+        <v>-0.1402870556224066</v>
       </c>
       <c r="C81">
-        <v>-0.08186123986164064</v>
+        <v>0.0980229286325854</v>
       </c>
       <c r="D81">
-        <v>-0.04879815018768491</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09061391377127885</v>
+      </c>
+      <c r="E81">
+        <v>0.07953666434828531</v>
+      </c>
+      <c r="F81">
+        <v>0.03108312909474244</v>
+      </c>
+      <c r="G81">
+        <v>-0.05738288295053101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.07161415258264105</v>
+        <v>-0.1911356008015512</v>
       </c>
       <c r="C82">
-        <v>-0.04557542439136589</v>
+        <v>0.1379687939629778</v>
       </c>
       <c r="D82">
-        <v>-0.02872491610502041</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2216174011904059</v>
+      </c>
+      <c r="E82">
+        <v>0.005325877163998081</v>
+      </c>
+      <c r="F82">
+        <v>0.07781463043087562</v>
+      </c>
+      <c r="G82">
+        <v>-0.02937111023544442</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02670264569366104</v>
+        <v>-0.02730326876411859</v>
       </c>
       <c r="C83">
-        <v>-0.01965072478297825</v>
+        <v>0.03503589444644167</v>
       </c>
       <c r="D83">
-        <v>0.0196981385060914</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03388371710833964</v>
+      </c>
+      <c r="E83">
+        <v>0.006102126494996318</v>
+      </c>
+      <c r="F83">
+        <v>0.05160036135911718</v>
+      </c>
+      <c r="G83">
+        <v>0.02206254133206483</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2383715411761246</v>
+        <v>-0.2080056361630103</v>
       </c>
       <c r="C85">
-        <v>-0.1186067337860939</v>
+        <v>0.1244533149875779</v>
       </c>
       <c r="D85">
-        <v>-0.1569486514805098</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1086807661269545</v>
+      </c>
+      <c r="E85">
+        <v>0.007145698301710716</v>
+      </c>
+      <c r="F85">
+        <v>-0.01588530795995989</v>
+      </c>
+      <c r="G85">
+        <v>-0.122231055126797</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01097669981879765</v>
+        <v>-0.01174400829920174</v>
       </c>
       <c r="C86">
-        <v>-0.02669764939476179</v>
+        <v>0.03204696741367472</v>
       </c>
       <c r="D86">
-        <v>0.03692942759215182</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0769064107263573</v>
+      </c>
+      <c r="E86">
+        <v>0.04376515952697172</v>
+      </c>
+      <c r="F86">
+        <v>0.1446918691302743</v>
+      </c>
+      <c r="G86">
+        <v>0.004960269627598578</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01397037304427293</v>
+        <v>-0.02014688278565685</v>
       </c>
       <c r="C87">
-        <v>-0.02397375127844156</v>
+        <v>0.0186109925365144</v>
       </c>
       <c r="D87">
-        <v>0.08867316207609212</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09052876743165947</v>
+      </c>
+      <c r="E87">
+        <v>0.08017915680980664</v>
+      </c>
+      <c r="F87">
+        <v>0.09924217364257851</v>
+      </c>
+      <c r="G87">
+        <v>0.03312459835861093</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1026475231033743</v>
+        <v>-0.08908264915839183</v>
       </c>
       <c r="C88">
-        <v>-0.07259866299925447</v>
+        <v>0.06240491098930267</v>
       </c>
       <c r="D88">
-        <v>-0.01928436239210043</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01257890405420431</v>
+      </c>
+      <c r="E88">
+        <v>0.02758284689895123</v>
+      </c>
+      <c r="F88">
+        <v>0.07351609417822076</v>
+      </c>
+      <c r="G88">
+        <v>0.02939705841903085</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.191184006127172</v>
+        <v>-0.2219091574111109</v>
       </c>
       <c r="C89">
-        <v>0.3742016663630339</v>
+        <v>-0.3814070486098743</v>
       </c>
       <c r="D89">
-        <v>-0.02688703824488846</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02541618199570835</v>
+      </c>
+      <c r="E89">
+        <v>0.02760462199566783</v>
+      </c>
+      <c r="F89">
+        <v>0.09488005773398105</v>
+      </c>
+      <c r="G89">
+        <v>0.06685051106242448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1770971201283469</v>
+        <v>-0.2004750300328838</v>
       </c>
       <c r="C90">
-        <v>0.348548035193085</v>
+        <v>-0.3186367328110668</v>
       </c>
       <c r="D90">
-        <v>0.004435080593246809</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01699959014649715</v>
+      </c>
+      <c r="E90">
+        <v>0.05919233106753776</v>
+      </c>
+      <c r="F90">
+        <v>0.05132286697101154</v>
+      </c>
+      <c r="G90">
+        <v>0.01412784900496787</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2006891154034105</v>
+        <v>-0.1919879452003983</v>
       </c>
       <c r="C91">
-        <v>-0.1145599878949887</v>
+        <v>0.1385230752273725</v>
       </c>
       <c r="D91">
-        <v>-0.07424486925630357</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1043076295081048</v>
+      </c>
+      <c r="E91">
+        <v>0.07246386623039278</v>
+      </c>
+      <c r="F91">
+        <v>0.04820136559253174</v>
+      </c>
+      <c r="G91">
+        <v>-0.0604917836134564</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1696271448642896</v>
+        <v>-0.1835332838138094</v>
       </c>
       <c r="C92">
-        <v>0.2796785933249141</v>
+        <v>-0.2805451219348994</v>
       </c>
       <c r="D92">
-        <v>-0.02875228982250471</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01286662727943976</v>
+      </c>
+      <c r="E92">
+        <v>0.06960778328458683</v>
+      </c>
+      <c r="F92">
+        <v>0.07624540815061895</v>
+      </c>
+      <c r="G92">
+        <v>0.008816648642724578</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1993903022212789</v>
+        <v>-0.2244158484469104</v>
       </c>
       <c r="C93">
-        <v>0.3399780057331144</v>
+        <v>-0.3196519832131587</v>
       </c>
       <c r="D93">
-        <v>0.003723511240958467</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.005838871656237182</v>
+      </c>
+      <c r="E93">
+        <v>0.05198999250310517</v>
+      </c>
+      <c r="F93">
+        <v>0.04756776687575141</v>
+      </c>
+      <c r="G93">
+        <v>-0.02766515969855497</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2834378815944565</v>
+        <v>-0.3426515474420441</v>
       </c>
       <c r="C94">
-        <v>-0.1459783004217943</v>
+        <v>0.1966800821935575</v>
       </c>
       <c r="D94">
-        <v>-0.156277761941043</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4740107117541467</v>
+      </c>
+      <c r="E94">
+        <v>0.1685463924400319</v>
+      </c>
+      <c r="F94">
+        <v>-0.4358048639116591</v>
+      </c>
+      <c r="G94">
+        <v>0.3053366587522241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.08919066833408031</v>
+        <v>-0.08306961817021204</v>
       </c>
       <c r="C95">
-        <v>-0.07656541638933118</v>
+        <v>0.07580512881410423</v>
       </c>
       <c r="D95">
-        <v>0.06552676241327407</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1501939857785632</v>
+      </c>
+      <c r="E95">
+        <v>-0.1363916113342492</v>
+      </c>
+      <c r="F95">
+        <v>0.1955817264936505</v>
+      </c>
+      <c r="G95">
+        <v>0.8800099992578339</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2073319958906186</v>
+        <v>-0.1900215749708012</v>
       </c>
       <c r="C98">
-        <v>-0.0243439006941845</v>
+        <v>0.03693165331340077</v>
       </c>
       <c r="D98">
-        <v>0.06000232855789876</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1756758009669907</v>
+      </c>
+      <c r="E98">
+        <v>-0.1543684989788639</v>
+      </c>
+      <c r="F98">
+        <v>-0.04603099057636414</v>
+      </c>
+      <c r="G98">
+        <v>-0.105897618986959</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01135284022317869</v>
+        <v>-0.007407226904920574</v>
       </c>
       <c r="C101">
-        <v>-0.02504519963066036</v>
+        <v>0.02339174635760106</v>
       </c>
       <c r="D101">
-        <v>-0.01739631167802864</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01830402319961459</v>
+      </c>
+      <c r="E101">
+        <v>0.02668930154678761</v>
+      </c>
+      <c r="F101">
+        <v>0.08769788060380296</v>
+      </c>
+      <c r="G101">
+        <v>-0.006548454982052094</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1210250539325041</v>
+        <v>-0.123663866042966</v>
       </c>
       <c r="C102">
-        <v>-0.07496779511375447</v>
+        <v>0.09873489695075537</v>
       </c>
       <c r="D102">
-        <v>-0.04642726409926287</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05034202984926631</v>
+      </c>
+      <c r="E102">
+        <v>-0.01142808464830312</v>
+      </c>
+      <c r="F102">
+        <v>0.03858914990909711</v>
+      </c>
+      <c r="G102">
+        <v>-0.02335432183625557</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
